--- a/Del 2 og del 3 - intelligente systemer.xlsx
+++ b/Del 2 og del 3 - intelligente systemer.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Thygesen\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0988da45a29ed05a/02461 Intelligente systemer/3 - ugers/kode/3-ugers-projekt-Ham-n-spam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD11E2-5E28-48AD-8E7E-16AC31517755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{B3DD11E2-5E28-48AD-8E7E-16AC31517755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1D16717-9D47-416D-BFA5-D46992FC2662}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
+    <workbookView xWindow="2438" yWindow="2445" windowWidth="10349" windowHeight="9120" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="SD_test_size">'Ark1'!$B$6</definedName>
+    <definedName name="SD_train_size">'Ark1'!$B$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,9 +54,6 @@
     <t xml:space="preserve">SD_shuffle </t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>SD_train_size</t>
   </si>
   <si>
@@ -72,9 +75,6 @@
     <t xml:space="preserve">Accuracy p </t>
   </si>
   <si>
-    <t>Confussion matrix</t>
-  </si>
-  <si>
     <t>Teststørrelse n</t>
   </si>
   <si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>KNN (TFIDF) 25/75:</t>
+  </si>
+  <si>
+    <t>Confusion matrix</t>
+  </si>
+  <si>
+    <t>stratify</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -812,33 +818,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2A8BE-00F6-40C0-B481-EF09B922C62E}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.41796875" customWidth="1"/>
-    <col min="4" max="4" width="11.62890625" customWidth="1"/>
-    <col min="8" max="8" width="18.05078125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.68359375" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" customWidth="1"/>
-    <col min="18" max="18" width="15.20703125" customWidth="1"/>
-    <col min="21" max="21" width="24.1015625" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" customWidth="1"/>
+    <col min="21" max="21" width="24.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -851,7 +857,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="K2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -862,10 +868,10 @@
       <c r="R2" s="4"/>
       <c r="S2" s="6"/>
       <c r="U2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -873,14 +879,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="10"/>
       <c r="K3" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="8">
         <v>3</v>
@@ -891,18 +901,18 @@
       <c r="R3" s="8"/>
       <c r="S3" s="10"/>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3">
         <v>4360</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
+      <c r="B4" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -912,7 +922,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="10"/>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -923,20 +933,22 @@
       <c r="R4" s="8"/>
       <c r="S4" s="10"/>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V4">
         <v>1368</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1500</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -952,21 +964,23 @@
       <c r="R5" s="8"/>
       <c r="S5" s="10"/>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V5">
         <f>SUM(V3:V4)</f>
         <v>5728</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2000</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -983,7 +997,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1003,16 +1017,16 @@
       <c r="R7" s="8"/>
       <c r="S7" s="10"/>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V7">
         <f>(V3/V5)*100</f>
         <v>76.117318435754186</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1021,7 +1035,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" s="6"/>
       <c r="K8" s="3" t="s">
@@ -1034,218 +1048,238 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S8" s="6"/>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V8">
         <f>(V4/V5)*100</f>
         <v>23.882681564245811</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I9" s="10"/>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.95730000000000004</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8">
         <f>(B10*B11+2)/(B11+4)</f>
-        <v>0.5</v>
+        <v>0.95638722554890221</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="10">
         <f>E16</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.94744530197235133</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.996</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" s="8">
         <f>(L10*L11+2)/(L11+4)</f>
-        <v>0.5</v>
+        <v>0.99500998003992014</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S10" s="10">
         <f>O16</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>0.99192485995914714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8">
         <f>B6</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8">
         <f>B11+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="10">
         <f>E10</f>
-        <v>0.5</v>
+        <v>0.95638722554890221</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L11" s="8">
         <f>B6</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8">
         <f>L11+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S11" s="10">
         <f>O10</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>0.99500998003992014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1127</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15</v>
+      </c>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="8">
         <f>SQRT(E10*(1-E10)/E11)</f>
-        <v>0.25</v>
+        <v>4.5622059064034893E-3</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="10">
         <f>E15</f>
-        <v>0.99</v>
+        <v>0.96532914912545309</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1467</v>
+      </c>
+      <c r="M12" s="8">
+        <v>53</v>
+      </c>
       <c r="N12" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O12" s="8">
         <f>SQRT(O10*(1-O10)/O11)</f>
-        <v>0.25</v>
+        <v>1.5740408575372305E-3</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S12" s="10">
         <f>O15</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>0.99809510012069314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="8">
+        <v>49</v>
+      </c>
+      <c r="C13" s="8">
+        <v>309</v>
+      </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8">
         <f>1.96*E12</f>
-        <v>0.49</v>
+        <v>8.9419235765508392E-3</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="10"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="8">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8">
+        <v>465</v>
+      </c>
       <c r="N13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O13" s="8">
         <f>1.96*O12</f>
-        <v>0.49</v>
+        <v>3.0851200807729719E-3</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="10"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1254,7 +1288,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I14" s="10"/>
       <c r="K14" s="11"/>
@@ -1265,91 +1299,91 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8">
         <f>E10+E13</f>
-        <v>0.99</v>
+        <v>0.96532914912545309</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15" s="10">
         <f>E25</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.98053552241629482</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O15" s="8">
         <f>O10+O13</f>
-        <v>0.99</v>
+        <v>0.99809510012069314</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S15" s="10">
         <f>O25</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+        <v>0.79683141967955107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="8">
         <f>E10-E13</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.94744530197235133</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I16" s="10">
         <f>E19</f>
-        <v>0.5</v>
+        <v>0.98572854291417167</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8">
         <f>O10-O13</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.99192485995914714</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S16" s="10">
         <f>O19</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.81387225548902198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1358,11 +1392,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="10">
         <f>E24</f>
-        <v>0.99</v>
+        <v>0.99092156341204851</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="8"/>
@@ -1372,21 +1406,21 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S17" s="10">
         <f>O24</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.83091309129849289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1394,12 +1428,12 @@
       <c r="H18" s="8"/>
       <c r="I18" s="10"/>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -1407,179 +1441,199 @@
       <c r="R18" s="8"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.98670000000000002</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="8">
         <f>(B19*B20+2)/(B20+4)</f>
-        <v>0.5</v>
+        <v>0.98572854291417167</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I19" s="10"/>
       <c r="K19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.8145</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" s="8">
         <f>(L19*L20+2)/(L20+4)</f>
-        <v>0.5</v>
+        <v>0.81387225548902198</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="8">
-        <f>B15</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="8">
         <f>B20+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I20" s="10">
         <f>E35</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.94165536987703846</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="8">
-        <f>L15</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8">
         <f>L20+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S20" s="10">
         <f>O35</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.95980856168781548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1128</v>
+      </c>
+      <c r="C21" s="8">
+        <v>14</v>
+      </c>
       <c r="D21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="8">
         <f>SQRT(E19*(1-E19)/E20)</f>
-        <v>0.25</v>
+        <v>2.6495002540188129E-3</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" s="10">
         <f>E29</f>
-        <v>0.5</v>
+        <v>0.9510978043912176</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1193</v>
+      </c>
+      <c r="M21" s="8">
+        <v>327</v>
+      </c>
       <c r="N21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O21" s="8">
         <f>SQRT(O19*(1-O19)/O20)</f>
-        <v>0.25</v>
+        <v>8.6943039844239352E-3</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S21" s="10">
         <f>O29</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.96756487025948101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="8">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8">
+        <v>352</v>
+      </c>
       <c r="D22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" s="8">
         <f>1.96*E21</f>
-        <v>0.49</v>
+        <v>5.193020497876873E-3</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="10">
         <f>E34</f>
-        <v>0.99</v>
+        <v>0.96054023890539675</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="L22" s="8">
+        <v>44</v>
+      </c>
+      <c r="M22" s="8">
+        <v>436</v>
+      </c>
       <c r="N22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O22" s="8">
         <f>1.96*O21</f>
-        <v>0.49</v>
+        <v>1.7040835809470911E-2</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S22" s="10">
         <f>O34</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.97532117883114655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1599,81 +1653,81 @@
       <c r="R23" s="8"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="8">
         <f>E19+E22</f>
-        <v>0.99</v>
+        <v>0.99092156341204851</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" s="10"/>
       <c r="K24" s="11"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O24" s="8">
         <f>O19+O22</f>
-        <v>0.99</v>
+        <v>0.83091309129849289</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="8">
         <f>E19-E22</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.98053552241629482</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I25" s="10">
         <f>E44</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.98030026234366285</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8">
         <f>O19-O22</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.79683141967955107</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S25" s="10">
         <f>O44</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.84457827929158169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1682,11 +1736,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I26" s="10">
         <f>E38</f>
-        <v>0.5</v>
+        <v>0.98552894211576847</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="8"/>
@@ -1696,14 +1750,14 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S26" s="10">
         <f>O38</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.8597804391217565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -1714,14 +1768,14 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="10">
         <f>E43</f>
-        <v>0.99</v>
+        <v>0.99075762188787408</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1730,21 +1784,21 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S27" s="10">
         <f>O43</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>0.87498259895193131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1752,12 +1806,12 @@
       <c r="H28" s="8"/>
       <c r="I28" s="10"/>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -1765,162 +1819,182 @@
       <c r="R28" s="8"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.95199999999999996</v>
+      </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" s="8">
         <f>(B29*B30+2)/(B30+4)</f>
-        <v>0.5</v>
+        <v>0.9510978043912176</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="10"/>
       <c r="K29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.96850000000000003</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O29" s="8">
         <f>(L29*L30+2)/(L30+4)</f>
-        <v>0.5</v>
+        <v>0.96756487025948101</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" s="8">
-        <f>B25</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="8">
         <f>B30+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="10"/>
       <c r="K30" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L30" s="8">
-        <f>L25</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8">
         <f>L30+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S30" s="10">
         <f>O54</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>-3.8446859980699466E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1460</v>
+      </c>
+      <c r="C31" s="8">
+        <v>60</v>
+      </c>
       <c r="D31" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="8">
         <f>SQRT(E29*(1-E29)/E30)</f>
-        <v>0.25</v>
+        <v>4.8175686296832321E-3</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="10"/>
       <c r="K31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1506</v>
+      </c>
+      <c r="M31" s="8">
+        <v>16</v>
+      </c>
       <c r="N31" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O31" s="8">
         <f>SQRT(O29*(1-O29)/O30)</f>
-        <v>0.25</v>
+        <v>3.9573002916660875E-3</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S31" s="10">
         <f>O48</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>9.9800399201596798E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="8">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8">
+        <v>444</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="8">
         <f>1.96*E31</f>
-        <v>0.49</v>
+        <v>9.4424345141791346E-3</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="10"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="L32" s="8">
+        <v>47</v>
+      </c>
+      <c r="M32" s="8">
+        <v>431</v>
+      </c>
       <c r="N32" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O32" s="8">
         <f>1.96*O31</f>
-        <v>0.49</v>
+        <v>7.7563085716655317E-3</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S32" s="10">
         <f>O53</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>2.3804765838389306E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1940,16 +2014,16 @@
       <c r="R33" s="8"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="8">
         <f>E29+E32</f>
-        <v>0.99</v>
+        <v>0.96054023890539675</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1959,29 +2033,29 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8">
         <f>O29+O32</f>
-        <v>0.99</v>
+        <v>0.97532117883114655</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" s="8">
         <f>E29-E32</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.94165536987703846</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -1991,23 +2065,23 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8">
         <f>O29-O32</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.95980856168781548</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S35" s="10">
         <f>O63</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>-3.8446859980699466E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2025,21 +2099,21 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S36" s="10">
         <f>O57</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>9.9800399201596798E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2047,163 +2121,183 @@
       <c r="H37" s="8"/>
       <c r="I37" s="10"/>
       <c r="K37" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S37" s="10">
         <f>O62</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>2.3804765838389306E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.98650000000000004</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38" s="8">
         <f>(B38*B39+2)/(B39+4)</f>
-        <v>0.5</v>
+        <v>0.98552894211576847</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="10"/>
       <c r="K38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.86050000000000004</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O38" s="8">
         <f>(L38*L39+2)/(L39+4)</f>
-        <v>0.5</v>
+        <v>0.8597804391217565</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" s="8">
-        <f>B34</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" s="8">
         <f>B39+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="10"/>
       <c r="K39" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L39" s="8">
-        <f>L34</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8">
         <f>L39+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1503</v>
+      </c>
+      <c r="C40" s="8">
+        <v>17</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" s="8">
         <f>SQRT(E38*(1-E38)/E39)</f>
-        <v>0.25</v>
+        <v>2.6676937612783534E-3</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="10"/>
       <c r="K40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="L40" s="8">
+        <v>1362</v>
+      </c>
+      <c r="M40" s="8">
+        <v>160</v>
+      </c>
       <c r="N40" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O40" s="8">
         <f>SQRT(O38*(1-O38)/O39)</f>
-        <v>0.25</v>
+        <v>7.7562039949871306E-3</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="8">
+        <v>10</v>
+      </c>
+      <c r="C41" s="8">
+        <v>470</v>
+      </c>
       <c r="D41" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E41" s="8">
         <f>1.96*E40</f>
-        <v>0.49</v>
+        <v>5.2286797721055722E-3</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="10"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="L41" s="8">
+        <v>119</v>
+      </c>
+      <c r="M41" s="8">
+        <v>359</v>
+      </c>
       <c r="N41" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O41" s="8">
         <f>1.96*O40</f>
-        <v>0.49</v>
+        <v>1.5202159830174776E-2</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="11"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2223,16 +2317,16 @@
       <c r="R42" s="8"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43" s="8">
         <f>E38+E41</f>
-        <v>0.99</v>
+        <v>0.99075762188787408</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2242,27 +2336,27 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8">
         <f>O38+O41</f>
-        <v>0.99</v>
+        <v>0.87498259895193131</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E44" s="14">
         <f>E38-E41</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.98030026234366285</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -2272,18 +2366,18 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8">
         <f>O38-O41</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.84457827929158169</v>
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -2294,9 +2388,9 @@
       <c r="R45" s="8"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="K46" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -2307,14 +2401,14 @@
       <c r="R46" s="8"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="K47" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -2322,80 +2416,80 @@
       <c r="R47" s="8"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="K48" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O48" s="8">
         <f>(L48*L49+2)/(L49+4)</f>
-        <v>0.5</v>
+        <v>9.9800399201596798E-4</v>
       </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K49" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L49" s="8">
-        <f>L44</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8">
         <f>L49+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K50" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O50" s="8">
         <f>SQRT(O48*(1-O48)/O49)</f>
-        <v>0.25</v>
+        <v>7.0534315909334829E-4</v>
       </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K51" s="11"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O51" s="8">
         <f>1.96*O50</f>
-        <v>0.49</v>
+        <v>1.3824725918229626E-3</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K52" s="11"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -2406,39 +2500,39 @@
       <c r="R52" s="8"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K53" s="11"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8">
         <f>O48+O51</f>
-        <v>0.99</v>
+        <v>2.3804765838389306E-3</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K54" s="11"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8">
         <f>O48-O51</f>
-        <v>1.0000000000000009E-2</v>
+        <v>-3.8446859980699466E-4</v>
       </c>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K55" s="11"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -2449,14 +2543,14 @@
       <c r="R55" s="8"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K56" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
@@ -2464,80 +2558,80 @@
       <c r="R56" s="8"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K57" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O57" s="8">
         <f>(L57*L58+2)/(L58+4)</f>
-        <v>0.5</v>
+        <v>9.9800399201596798E-4</v>
       </c>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K58" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L58" s="8">
-        <f>L53</f>
-        <v>0</v>
+        <f>SD_test_size</f>
+        <v>2000</v>
       </c>
       <c r="M58" s="8"/>
       <c r="N58" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8">
         <f>L58+4</f>
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K59" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O59" s="8">
         <f>SQRT(O57*(1-O57)/O58)</f>
-        <v>0.25</v>
+        <v>7.0534315909334829E-4</v>
       </c>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K60" s="11"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O60" s="8">
         <f>1.96*O59</f>
-        <v>0.49</v>
+        <v>1.3824725918229626E-3</v>
       </c>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K61" s="11"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -2548,32 +2642,32 @@
       <c r="R61" s="8"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K62" s="11"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8">
         <f>O57+O60</f>
-        <v>0.99</v>
+        <v>2.3804765838389306E-3</v>
       </c>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="11:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="11:19" x14ac:dyDescent="0.45">
       <c r="K63" s="13"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O63" s="14">
         <f>O57-O60</f>
-        <v>1.0000000000000009E-2</v>
+        <v>-3.8446859980699466E-4</v>
       </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>

--- a/Del 2 og del 3 - intelligente systemer.xlsx
+++ b/Del 2 og del 3 - intelligente systemer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0988da45a29ed05a/02461 Intelligente systemer/3 - ugers/kode/3-ugers-projekt-Ham-n-spam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirstine Cort Graae\Desktop\IS eksamensprojekt\3-ugers-projekt-Ham-n-spam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{B3DD11E2-5E28-48AD-8E7E-16AC31517755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1D16717-9D47-416D-BFA5-D46992FC2662}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863A0A7-E676-46B8-9A55-B7C1C69313AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2438" yWindow="2445" windowWidth="10349" windowHeight="9120" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>Del 2: Find optimale NB-version</t>
   </si>
@@ -60,9 +60,6 @@
     <t>SD_test_size</t>
   </si>
   <si>
-    <t xml:space="preserve">Eksperiment 1: Fordeling "Alt data " (datasæt V1) </t>
-  </si>
-  <si>
     <t>Gauss NB:</t>
   </si>
   <si>
@@ -171,28 +168,34 @@
     <t>Det samlede datasæt:</t>
   </si>
   <si>
-    <t>Eksperiment 2: Fordeling 25/75 (u. stopwords)</t>
-  </si>
-  <si>
-    <t>Eksperiment 2: Fordeling 75/25 (u. stopwords)</t>
-  </si>
-  <si>
-    <t>KNN (BOW) 25/75:</t>
-  </si>
-  <si>
-    <t>KNN (BOW) 75/25:</t>
-  </si>
-  <si>
-    <t>KNN (TFIDF) 75/25:</t>
-  </si>
-  <si>
-    <t>KNN (TFIDF) 25/75:</t>
-  </si>
-  <si>
     <t>Confusion matrix</t>
   </si>
   <si>
     <t>stratify</t>
+  </si>
+  <si>
+    <t>Eksperiment 2: Al data (Fordeling 24/76 (u. stopwords))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksperiment 1: Al data (Fordeling (u. stpwords) </t>
+  </si>
+  <si>
+    <t>Datasæt</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>KNN (BOW) 24/76:</t>
+  </si>
+  <si>
+    <t>KNN (TFIDF) 24/76:</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -818,33 +821,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2A8BE-00F6-40C0-B481-EF09B922C62E}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="18.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
-    <col min="18" max="18" width="15.19921875" customWidth="1"/>
-    <col min="21" max="21" width="24.06640625" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="21" max="21" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -857,7 +860,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -868,10 +871,10 @@
       <c r="R2" s="4"/>
       <c r="S2" s="6"/>
       <c r="U2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -880,7 +883,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8" t="b">
         <v>1</v>
@@ -890,7 +893,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="10"/>
       <c r="K3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="8">
         <v>3</v>
@@ -901,18 +904,18 @@
       <c r="R3" s="8"/>
       <c r="S3" s="10"/>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V3">
         <v>4360</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>1</v>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -922,7 +925,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="10"/>
       <c r="K4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -933,13 +936,13 @@
       <c r="R4" s="8"/>
       <c r="S4" s="10"/>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V4">
         <v>1368</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -948,7 +951,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -964,23 +967,23 @@
       <c r="R5" s="8"/>
       <c r="S5" s="10"/>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V5">
         <f>SUM(V3:V4)</f>
         <v>5728</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8">
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -997,9 +1000,13 @@
       <c r="R6" s="8"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1017,16 +1024,16 @@
       <c r="R7" s="8"/>
       <c r="S7" s="10"/>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V7">
         <f>(V3/V5)*100</f>
         <v>76.117318435754186</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1035,163 +1042,156 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="K8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="6"/>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V8">
         <f>(V4/V5)*100</f>
         <v>23.882681564245811</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="10"/>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8">
         <v>0.95730000000000004</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="8">
         <f>(B10*B11+2)/(B11+4)</f>
-        <v>0.95638722554890221</v>
+        <v>0.95649489436619728</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="10">
         <f>E16</f>
-        <v>0.94744530197235133</v>
+        <v>0.94810679918827789</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="8">
-        <v>0.996</v>
+        <v>0.96870000000000001</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8">
         <f>(L10*L11+2)/(L11+4)</f>
-        <v>0.99500998003992014</v>
+        <v>0.96787482394366187</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="10">
-        <f>O16</f>
-        <v>0.99192485995914714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="R10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8">
         <f>B6</f>
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="8">
         <f>B11+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="10">
         <f>E10</f>
-        <v>0.95638722554890221</v>
+        <v>0.95649489436619728</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="8">
-        <f>B6</f>
-        <v>2000</v>
+        <f>SD_test_size</f>
+        <v>2268</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O11" s="8">
         <f>L11+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S11" s="10">
-        <f>O10</f>
-        <v>0.99500998003992014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+        <f>O16</f>
+        <v>0.96062405171493093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8">
         <v>1127</v>
@@ -1200,48 +1200,48 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8">
         <f>SQRT(E10*(1-E10)/E11)</f>
-        <v>4.5622059064034893E-3</v>
+        <v>4.2796403968976288E-3</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="10">
         <f>E15</f>
-        <v>0.96532914912545309</v>
+        <v>0.96488298954411666</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L12" s="8">
-        <v>1467</v>
+        <v>1708</v>
       </c>
       <c r="M12" s="8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O12" s="8">
         <f>SQRT(O10*(1-O10)/O11)</f>
-        <v>1.5740408575372305E-3</v>
+        <v>3.6993735860872288E-3</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S12" s="10">
-        <f>O15</f>
-        <v>0.99809510012069314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+        <f>O10</f>
+        <v>0.96787482394366187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="8">
         <v>49</v>
@@ -1250,11 +1250,11 @@
         <v>309</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8">
         <f>1.96*E12</f>
-        <v>8.9419235765508392E-3</v>
+        <v>8.3880951779193528E-3</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1262,24 +1262,29 @@
       <c r="I13" s="10"/>
       <c r="K13" s="11"/>
       <c r="L13" s="8">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M13" s="8">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" s="8">
         <f>1.96*O12</f>
-        <v>3.0851200807729719E-3</v>
+        <v>7.2507722287309681E-3</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="R13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="10">
+        <f>O15</f>
+        <v>0.97512559617239281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1288,102 +1293,102 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="8">
+        <f>SUM(L12:M13)</f>
+        <v>2268</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="R14" s="8"/>
       <c r="S14" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="8">
         <f>E10+E13</f>
-        <v>0.96532914912545309</v>
+        <v>0.96488298954411666</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="10">
         <f>E25</f>
-        <v>0.98053552241629482</v>
+        <v>0.98098533661051968</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" s="8">
         <f>O10+O13</f>
-        <v>0.99809510012069314</v>
+        <v>0.97512559617239281</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="10">
-        <f>O25</f>
-        <v>0.79683141967955107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="R15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="8">
         <f>E10-E13</f>
-        <v>0.94744530197235133</v>
+        <v>0.94810679918827789</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="10">
         <f>E19</f>
-        <v>0.98572854291417167</v>
+        <v>0.98584313380281685</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16" s="8">
         <f>O10-O13</f>
-        <v>0.99192485995914714</v>
+        <v>0.96062405171493093</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S16" s="10">
-        <f>O19</f>
-        <v>0.81387225548902198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+        <f>O25</f>
+        <v>0.84070244543025141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1392,11 +1397,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="10">
         <f>E24</f>
-        <v>0.99092156341204851</v>
+        <v>0.99070093099511403</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="8"/>
@@ -1406,21 +1411,21 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="10">
+        <f>O19</f>
+        <v>0.85517359154929584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="S17" s="10">
-        <f>O24</f>
-        <v>0.83091309129849289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1428,114 +1433,112 @@
       <c r="H18" s="8"/>
       <c r="I18" s="10"/>
       <c r="K18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="R18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="10">
+        <f>O24</f>
+        <v>0.86964473766834027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8">
         <v>0.98670000000000002</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="8">
         <f>(B19*B20+2)/(B20+4)</f>
-        <v>0.98572854291417167</v>
+        <v>0.98584313380281685</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="10"/>
       <c r="K19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="8">
-        <v>0.8145</v>
+        <v>0.85580000000000001</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8">
         <f>(L19*L20+2)/(L20+4)</f>
-        <v>0.81387225548902198</v>
+        <v>0.85517359154929584</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="8">
         <f>SD_test_size</f>
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="8">
         <f>B20+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="10">
         <f>E35</f>
-        <v>0.94165536987703846</v>
+        <v>0.94234532326431897</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="8">
         <f>SD_test_size</f>
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O20" s="8">
         <f>L20+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="10">
-        <f>O35</f>
-        <v>0.95980856168781548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="R20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B21" s="8">
         <v>1128</v>
@@ -1544,48 +1547,48 @@
         <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="8">
         <f>SQRT(E19*(1-E19)/E20)</f>
-        <v>2.6495002540188129E-3</v>
+        <v>2.4784679552536642E-3</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="10">
         <f>E29</f>
-        <v>0.9510978043912176</v>
+        <v>0.95120422535211269</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L21" s="8">
-        <v>1193</v>
+        <v>1543</v>
       </c>
       <c r="M21" s="8">
-        <v>327</v>
+        <v>183</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" s="8">
         <f>SQRT(O19*(1-O19)/O20)</f>
-        <v>8.6943039844239352E-3</v>
+        <v>7.3832378158389979E-3</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S21" s="10">
-        <f>O29</f>
-        <v>0.96756487025948101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+        <f>O35</f>
+        <v>0.95819269213110481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="8">
         <v>6</v>
@@ -1594,46 +1597,46 @@
         <v>352</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="8">
         <f>1.96*E21</f>
-        <v>5.193020497876873E-3</v>
+        <v>4.8577971922971813E-3</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="10">
         <f>E34</f>
-        <v>0.96054023890539675</v>
+        <v>0.96006312743990641</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="8">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="M22" s="8">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O22" s="8">
         <f>1.96*O21</f>
-        <v>1.7040835809470911E-2</v>
+        <v>1.4471146119044435E-2</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S22" s="10">
-        <f>O34</f>
-        <v>0.97532117883114655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+        <f>O29</f>
+        <v>0.96567869718309851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1643,91 +1646,96 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="8">
+        <f>SUM(L21:M22)</f>
+        <v>2268</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="R23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="10">
+        <f>O34</f>
+        <v>0.97316470223509222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="8">
         <f>E19+E22</f>
-        <v>0.99092156341204851</v>
+        <v>0.99070093099511403</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="10"/>
       <c r="K24" s="11"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O24" s="8">
         <f>O19+O22</f>
-        <v>0.83091309129849289</v>
+        <v>0.86964473766834027</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="R24" s="8"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="8">
         <f>E19-E22</f>
-        <v>0.98053552241629482</v>
+        <v>0.98098533661051968</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="10">
         <f>E44</f>
-        <v>0.98030026234366285</v>
+        <v>0.98075205035506208</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O25" s="8">
         <f>O19-O22</f>
-        <v>0.79683141967955107</v>
+        <v>0.84070244543025141</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S25" s="10">
-        <f>O44</f>
-        <v>0.84457827929158169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="R25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1736,11 +1744,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="10">
         <f>E38</f>
-        <v>0.98552894211576847</v>
+        <v>0.985643485915493</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="8"/>
@@ -1750,14 +1758,14 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S26" s="10">
-        <f>O38</f>
-        <v>0.8597804391217565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+        <f>O44</f>
+        <v>0.7941296685037097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>2</v>
       </c>
@@ -1768,37 +1776,37 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="10">
         <f>E43</f>
-        <v>0.99075762188787408</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+        <v>0.99053492147592392</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S27" s="10">
-        <f>O43</f>
-        <v>0.87498259895193131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+        <f>O38</f>
+        <v>0.81025281690140838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1806,107 +1814,101 @@
       <c r="H28" s="8"/>
       <c r="I28" s="10"/>
       <c r="K28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="R28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="10">
+        <f>O43</f>
+        <v>0.82637596529910706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="8">
         <v>0.95199999999999996</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="8">
         <f>(B29*B30+2)/(B30+4)</f>
-        <v>0.9510978043912176</v>
+        <v>0.95120422535211269</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="10"/>
       <c r="K29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="8">
-        <v>0.96850000000000003</v>
+        <v>0.96650000000000003</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8">
         <f>(L29*L30+2)/(L30+4)</f>
-        <v>0.96756487025948101</v>
+        <v>0.96567869718309851</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="8">
         <f>SD_test_size</f>
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="8">
         <f>B30+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="10"/>
       <c r="K30" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="8">
-        <f>SD_test_size</f>
-        <v>2000</v>
+        <f>B6</f>
+        <v>2268</v>
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O30" s="8">
         <f>L30+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S30" s="10">
-        <f>O54</f>
-        <v>-3.8446859980699466E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B31" s="8">
         <v>1460</v>
@@ -1915,43 +1917,36 @@
         <v>60</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="8">
         <f>SQRT(E29*(1-E29)/E30)</f>
-        <v>4.8175686296832321E-3</v>
+        <v>4.519848003976379E-3</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="10"/>
       <c r="K31" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L31" s="8">
-        <v>1506</v>
+        <v>1665</v>
       </c>
       <c r="M31" s="8">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O31" s="8">
         <f>SQRT(O29*(1-O29)/O30)</f>
-        <v>3.9573002916660875E-3</v>
+        <v>3.8193903326498458E-3</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S31" s="10">
-        <f>O48</f>
-        <v>9.9800399201596798E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="8">
         <v>36</v>
@@ -1960,11 +1955,11 @@
         <v>444</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="8">
         <f>1.96*E31</f>
-        <v>9.4424345141791346E-3</v>
+        <v>8.858902087793703E-3</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -1972,29 +1967,22 @@
       <c r="I32" s="10"/>
       <c r="K32" s="11"/>
       <c r="L32" s="8">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M32" s="8">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O32" s="8">
         <f>1.96*O31</f>
-        <v>7.7563085716655317E-3</v>
+        <v>7.486005051993698E-3</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="10">
-        <f>O53</f>
-        <v>2.3804765838389306E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2004,26 +1992,29 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="10"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="8"/>
+      <c r="K33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="8">
+        <f>SUM(L31:M32)</f>
+        <v>2268</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="8">
         <f>E29+E32</f>
-        <v>0.96054023890539675</v>
+        <v>0.96006312743990641</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2033,29 +2024,25 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O34" s="8">
         <f>O29+O32</f>
-        <v>0.97532117883114655</v>
+        <v>0.97316470223509222</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="8">
         <f>E29-E32</f>
-        <v>0.94165536987703846</v>
+        <v>0.94234532326431897</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2065,23 +2052,16 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8">
         <f>O29-O32</f>
-        <v>0.95980856168781548</v>
+        <v>0.95819269213110481</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S35" s="10">
-        <f>O63</f>
-        <v>-3.8446859980699466E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2098,22 +2078,15 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="10">
-        <f>O57</f>
-        <v>9.9800399201596798E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2121,105 +2094,98 @@
       <c r="H37" s="8"/>
       <c r="I37" s="10"/>
       <c r="K37" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
-      <c r="R37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="10">
-        <f>O62</f>
-        <v>2.3804765838389306E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="8">
         <v>0.98650000000000004</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="8">
         <f>(B38*B39+2)/(B39+4)</f>
-        <v>0.98552894211576847</v>
+        <v>0.985643485915493</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="10"/>
       <c r="K38" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" s="8">
-        <v>0.86050000000000004</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8">
         <f>(L38*L39+2)/(L39+4)</f>
-        <v>0.8597804391217565</v>
+        <v>0.81025281690140838</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="8">
         <f>SD_test_size</f>
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="8">
         <f>B39+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="10"/>
       <c r="K39" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" s="8">
         <f>SD_test_size</f>
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O39" s="8">
         <f>L39+4</f>
-        <v>2004</v>
+        <v>2272</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B40" s="8">
         <v>1503</v>
@@ -2228,38 +2194,38 @@
         <v>17</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="8">
         <f>SQRT(E38*(1-E38)/E39)</f>
-        <v>2.6676937612783534E-3</v>
+        <v>2.4956303879749417E-3</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="10"/>
       <c r="K40" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L40" s="8">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="M40" s="8">
-        <v>160</v>
+        <v>375</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O40" s="8">
         <f>SQRT(O38*(1-O38)/O39)</f>
-        <v>7.7562039949871306E-3</v>
+        <v>8.2260961212748413E-3</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="8">
         <v>10</v>
@@ -2268,11 +2234,11 @@
         <v>470</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="8">
         <f>1.96*E40</f>
-        <v>5.2286797721055722E-3</v>
+        <v>4.8914355604308853E-3</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2280,24 +2246,24 @@
       <c r="I41" s="10"/>
       <c r="K41" s="11"/>
       <c r="L41" s="8">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="M41" s="8">
-        <v>359</v>
+        <v>490</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O41" s="8">
         <f>1.96*O40</f>
-        <v>1.5202159830174776E-2</v>
+        <v>1.612314839769869E-2</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2317,16 +2283,16 @@
       <c r="R42" s="8"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="8">
         <f>E38+E41</f>
-        <v>0.99075762188787408</v>
+        <v>0.99053492147592392</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2336,27 +2302,27 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O43" s="8">
         <f>O38+O41</f>
-        <v>0.87498259895193131</v>
+        <v>0.82637596529910706</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="14">
         <f>E38-E41</f>
-        <v>0.98030026234366285</v>
+        <v>0.98075205035506208</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -2366,130 +2332,85 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8">
         <f>O38-O41</f>
-        <v>0.84457827929158169</v>
+        <v>0.7941296685037097</v>
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="K45" s="11"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="K46" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="K47" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K47" s="7"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="N47" s="9"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="K48" s="11" t="s">
-        <v>11</v>
-      </c>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K48" s="11"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O48" s="8">
-        <f>(L48*L49+2)/(L49+4)</f>
-        <v>9.9800399201596798E-4</v>
-      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="11:19" x14ac:dyDescent="0.45">
-      <c r="K49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="8">
-        <f>SD_test_size</f>
-        <v>2000</v>
-      </c>
+    <row r="49" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K49" s="11"/>
+      <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O49" s="8">
-        <f>L49+4</f>
-        <v>2004</v>
-      </c>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="11:19" x14ac:dyDescent="0.45">
-      <c r="K50" s="11" t="s">
-        <v>50</v>
-      </c>
+    <row r="50" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K50" s="11"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O50" s="8">
-        <f>SQRT(O48*(1-O48)/O49)</f>
-        <v>7.0534315909334829E-4</v>
-      </c>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="51" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K51" s="11"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" s="8">
-        <f>1.96*O50</f>
-        <v>1.3824725918229626E-3</v>
-      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="52" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K52" s="11"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -2500,39 +2421,29 @@
       <c r="R52" s="8"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="53" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K53" s="11"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O53" s="8">
-        <f>O48+O51</f>
-        <v>2.3804765838389306E-3</v>
-      </c>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="54" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K54" s="11"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" s="8">
-        <f>O48-O51</f>
-        <v>-3.8446859980699466E-4</v>
-      </c>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="55" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K55" s="11"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -2543,95 +2454,62 @@
       <c r="R55" s="8"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="11:19" x14ac:dyDescent="0.45">
-      <c r="K56" s="7" t="s">
-        <v>34</v>
-      </c>
+    <row r="56" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K56" s="7"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="N56" s="9"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="11:19" x14ac:dyDescent="0.45">
-      <c r="K57" s="11" t="s">
-        <v>11</v>
-      </c>
+    <row r="57" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K57" s="11"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-      <c r="N57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O57" s="8">
-        <f>(L57*L58+2)/(L58+4)</f>
-        <v>9.9800399201596798E-4</v>
-      </c>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="11:19" x14ac:dyDescent="0.45">
-      <c r="K58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L58" s="8">
-        <f>SD_test_size</f>
-        <v>2000</v>
-      </c>
+    <row r="58" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K58" s="11"/>
+      <c r="L58" s="8"/>
       <c r="M58" s="8"/>
-      <c r="N58" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O58" s="8">
-        <f>L58+4</f>
-        <v>2004</v>
-      </c>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="11:19" x14ac:dyDescent="0.45">
-      <c r="K59" s="11" t="s">
-        <v>50</v>
-      </c>
+    <row r="59" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="K59" s="11"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
-      <c r="N59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O59" s="8">
-        <f>SQRT(O57*(1-O57)/O58)</f>
-        <v>7.0534315909334829E-4</v>
-      </c>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="60" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K60" s="11"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
-      <c r="N60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O60" s="8">
-        <f>1.96*O59</f>
-        <v>1.3824725918229626E-3</v>
-      </c>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="61" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K61" s="11"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -2642,33 +2520,23 @@
       <c r="R61" s="8"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="62" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K62" s="11"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="N62" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" s="8">
-        <f>O57+O60</f>
-        <v>2.3804765838389306E-3</v>
-      </c>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="11:19" x14ac:dyDescent="0.45">
+    <row r="63" spans="11:19" x14ac:dyDescent="0.35">
       <c r="K63" s="13"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
-      <c r="N63" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O63" s="14">
-        <f>O57-O60</f>
-        <v>-3.8446859980699466E-4</v>
-      </c>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>

--- a/Del 2 og del 3 - intelligente systemer.xlsx
+++ b/Del 2 og del 3 - intelligente systemer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirstine Cort Graae\Desktop\IS eksamensprojekt\3-ugers-projekt-Ham-n-spam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863A0A7-E676-46B8-9A55-B7C1C69313AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8DFED-3170-4C4B-89A2-B2902484E064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
+    <workbookView xWindow="4050" yWindow="0" windowWidth="16200" windowHeight="10060" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
   <si>
     <t>Del 2: Find optimale NB-version</t>
   </si>
@@ -174,9 +174,6 @@
     <t>stratify</t>
   </si>
   <si>
-    <t>Eksperiment 2: Al data (Fordeling 24/76 (u. stopwords))</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eksperiment 1: Al data (Fordeling (u. stpwords) </t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>Eksperiment 1: Al data (Fordeling 24/76 (u. stopwords))</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2A8BE-00F6-40C0-B481-EF09B922C62E}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="K8" s="12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1135,7 +1135,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S10" s="10"/>
     </row>
@@ -1194,10 +1194,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="8">
-        <v>1127</v>
+        <v>1693</v>
       </c>
       <c r="C12" s="8">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>15</v>
@@ -1244,10 +1244,10 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="8">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8">
-        <v>309</v>
+        <v>455</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
@@ -1285,8 +1285,13 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="8">
+        <f>SUM(B12:C13)</f>
+        <v>2268</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1297,7 +1302,7 @@
       </c>
       <c r="I14" s="10"/>
       <c r="K14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="8">
         <f>SUM(L12:M13)</f>
@@ -1344,7 +1349,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S15" s="10"/>
     </row>
@@ -1541,10 +1546,10 @@
         <v>43</v>
       </c>
       <c r="B21" s="8">
-        <v>1128</v>
+        <v>1705</v>
       </c>
       <c r="C21" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>15</v>
@@ -1591,10 +1596,10 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8">
-        <v>352</v>
+        <v>530</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
@@ -1637,8 +1642,13 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="8">
+        <f>SUM(B21:C22)</f>
+        <v>2268</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1647,7 +1657,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="10"/>
       <c r="K23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L23" s="8">
         <f>SUM(L21:M22)</f>
@@ -1931,10 +1941,10 @@
         <v>43</v>
       </c>
       <c r="L31" s="8">
-        <v>1665</v>
+        <v>1467</v>
       </c>
       <c r="M31" s="8">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>15</v>
@@ -1967,10 +1977,10 @@
       <c r="I32" s="10"/>
       <c r="K32" s="11"/>
       <c r="L32" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M32" s="8">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>16</v>
@@ -1983,8 +1993,13 @@
       <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8">
+        <f>SUM(B31:C32)</f>
+        <v>2000</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1993,11 +2008,11 @@
       <c r="H33" s="8"/>
       <c r="I33" s="10"/>
       <c r="K33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="8">
         <f>SUM(L31:M32)</f>
-        <v>2268</v>
+        <v>2000</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -2188,10 +2203,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="8">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="C40" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>15</v>
@@ -2208,10 +2223,10 @@
         <v>43</v>
       </c>
       <c r="L40" s="8">
-        <v>1349</v>
+        <v>1193</v>
       </c>
       <c r="M40" s="8">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>15</v>
@@ -2228,10 +2243,10 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" s="8">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>16</v>
@@ -2246,10 +2261,10 @@
       <c r="I41" s="10"/>
       <c r="K41" s="11"/>
       <c r="L41" s="8">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M41" s="8">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>16</v>
@@ -2264,8 +2279,13 @@
       <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="8">
+        <f>SUM(B40:C41)</f>
+        <v>2000</v>
+      </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2273,8 +2293,13 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="10"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="8"/>
+      <c r="K42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="8">
+        <f>SUM(L40:M41)</f>
+        <v>2000</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
